--- a/Study 3/Shocks/GCAM/CP_EI - 2035.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2035.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.003993427925831807</v>
+        <v>0.003993427925831806</v>
       </c>
     </row>
     <row r="3">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5031658476986519</v>
+        <v>0.5031658476986518</v>
       </c>
     </row>
     <row r="7">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.06079777782291441</v>
+        <v>0.0607977778229144</v>
       </c>
     </row>
     <row r="11">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.09696709877481066</v>
+        <v>0.09696709877481065</v>
       </c>
     </row>
     <row r="23">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0001763167534844129</v>
+        <v>0.0001763167534844128</v>
       </c>
     </row>
     <row r="27">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2.277823290824594e-05</v>
+        <v>2.277823290824593e-05</v>
       </c>
     </row>
     <row r="31">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.09545776121163148</v>
+        <v>0.09545776121163146</v>
       </c>
     </row>
     <row r="35">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.07028444673421193</v>
+        <v>0.07028444673421191</v>
       </c>
     </row>
     <row r="39">
